--- a/mapping/map_pos.xlsx
+++ b/mapping/map_pos.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACDAAF5-8DD6-4763-99AE-10EAC6784E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bricks" sheetId="1" r:id="rId1"/>
+    <sheet name="products" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,9 +25,2277 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="751">
+  <si>
+    <t>Abbaseya</t>
+  </si>
+  <si>
+    <t>El Daher</t>
+  </si>
+  <si>
+    <t>El Demerdash</t>
+  </si>
+  <si>
+    <t>El Sawah</t>
+  </si>
+  <si>
+    <t>El Wayli</t>
+  </si>
+  <si>
+    <t>Hadaek El Kobbah</t>
+  </si>
+  <si>
+    <t>Sakakiny</t>
+  </si>
+  <si>
+    <t>1003U7</t>
+  </si>
+  <si>
+    <t>Safaga</t>
+  </si>
+  <si>
+    <t>1004U7</t>
+  </si>
+  <si>
+    <t>Nakada - Kamoula</t>
+  </si>
+  <si>
+    <t>1005C8</t>
+  </si>
+  <si>
+    <t>El Khosous</t>
+  </si>
+  <si>
+    <t>1006U5</t>
+  </si>
+  <si>
+    <t>New Valley</t>
+  </si>
+  <si>
+    <t>1007C7</t>
+  </si>
+  <si>
+    <t>El Obour City</t>
+  </si>
+  <si>
+    <t>1008C4</t>
+  </si>
+  <si>
+    <t>Elmataria - Cairo</t>
+  </si>
+  <si>
+    <t>100C10</t>
+  </si>
+  <si>
+    <t>101A11</t>
+  </si>
+  <si>
+    <t>El Senbelaween</t>
+  </si>
+  <si>
+    <t>102A9</t>
+  </si>
+  <si>
+    <t>El Sanata</t>
+  </si>
+  <si>
+    <t>102C12</t>
+  </si>
+  <si>
+    <t>El Talbia (Haram)</t>
+  </si>
+  <si>
+    <t>103C6</t>
+  </si>
+  <si>
+    <t>Suiz</t>
+  </si>
+  <si>
+    <t>104C6</t>
+  </si>
+  <si>
+    <t>105C12</t>
+  </si>
+  <si>
+    <t>El Sayeda Zeinab</t>
+  </si>
+  <si>
+    <t>106A2</t>
+  </si>
+  <si>
+    <t>El Siuf Bahary</t>
+  </si>
+  <si>
+    <t>107A5</t>
+  </si>
+  <si>
+    <t>El Suif Shamaa</t>
+  </si>
+  <si>
+    <t>108A3</t>
+  </si>
+  <si>
+    <t>El Shatby</t>
+  </si>
+  <si>
+    <t>108A5</t>
+  </si>
+  <si>
+    <t>109C9</t>
+  </si>
+  <si>
+    <t>El Sharabeya</t>
+  </si>
+  <si>
+    <t>10A8</t>
+  </si>
+  <si>
+    <t>Abou Homous</t>
+  </si>
+  <si>
+    <t>110A13</t>
+  </si>
+  <si>
+    <t>El Shoaraa</t>
+  </si>
+  <si>
+    <t>112A14</t>
+  </si>
+  <si>
+    <t>El Shohadaa</t>
+  </si>
+  <si>
+    <t>113C14</t>
+  </si>
+  <si>
+    <t>Shebien El Kanater</t>
+  </si>
+  <si>
+    <t>114C15</t>
+  </si>
+  <si>
+    <t>Meet Oqba</t>
+  </si>
+  <si>
+    <t>115C14</t>
+  </si>
+  <si>
+    <t>El Saff</t>
+  </si>
+  <si>
+    <t>117C10</t>
+  </si>
+  <si>
+    <t>118A6</t>
+  </si>
+  <si>
+    <t>El Zaheria</t>
+  </si>
+  <si>
+    <t>119C7</t>
+  </si>
+  <si>
+    <t>10Th Of Ramadan</t>
+  </si>
+  <si>
+    <t>11C14</t>
+  </si>
+  <si>
+    <t>Abou Ragwan</t>
+  </si>
+  <si>
+    <t>120A3</t>
+  </si>
+  <si>
+    <t>El Amrya</t>
+  </si>
+  <si>
+    <t>121C9</t>
+  </si>
+  <si>
+    <t>123A3</t>
+  </si>
+  <si>
+    <t>El Hanoveel</t>
+  </si>
+  <si>
+    <t>124A3</t>
+  </si>
+  <si>
+    <t>Borg El Arab</t>
+  </si>
+  <si>
+    <t>124A4</t>
+  </si>
+  <si>
+    <t>El Betash</t>
+  </si>
+  <si>
+    <t>125A3</t>
+  </si>
+  <si>
+    <t>El Alamian</t>
+  </si>
+  <si>
+    <t>125A4</t>
+  </si>
+  <si>
+    <t>El Agamy</t>
+  </si>
+  <si>
+    <t>125U4</t>
+  </si>
+  <si>
+    <t>El Adwa</t>
+  </si>
+  <si>
+    <t>126C5</t>
+  </si>
+  <si>
+    <t>North Sinai</t>
+  </si>
+  <si>
+    <t>128U6</t>
+  </si>
+  <si>
+    <t>El Monshaa</t>
+  </si>
+  <si>
+    <t>129A2</t>
+  </si>
+  <si>
+    <t>El Asafra</t>
+  </si>
+  <si>
+    <t>12A5</t>
+  </si>
+  <si>
+    <t>Abou Soliman</t>
+  </si>
+  <si>
+    <t>12C7</t>
+  </si>
+  <si>
+    <t>Abo Zaabal</t>
+  </si>
+  <si>
+    <t>130A2</t>
+  </si>
+  <si>
+    <t>El Asafra Kebly</t>
+  </si>
+  <si>
+    <t>131A3</t>
+  </si>
+  <si>
+    <t>Attareen - Mehatet Masr</t>
+  </si>
+  <si>
+    <t>133A5</t>
+  </si>
+  <si>
+    <t>El Awaied</t>
+  </si>
+  <si>
+    <t>134C14</t>
+  </si>
+  <si>
+    <t>El Ayat</t>
+  </si>
+  <si>
+    <t>135U7</t>
+  </si>
+  <si>
+    <t>Hurgada</t>
+  </si>
+  <si>
+    <t>136U5</t>
+  </si>
+  <si>
+    <t>El Ghanayem</t>
+  </si>
+  <si>
+    <t>138C5</t>
+  </si>
+  <si>
+    <t>Assuit City</t>
+  </si>
+  <si>
+    <t>139C10</t>
+  </si>
+  <si>
+    <t>El Faggala</t>
+  </si>
+  <si>
+    <t>141U3</t>
+  </si>
+  <si>
+    <t>El Fashn</t>
+  </si>
+  <si>
+    <t>142U3</t>
+  </si>
+  <si>
+    <t>143U2</t>
+  </si>
+  <si>
+    <t>Fayoum City</t>
+  </si>
+  <si>
+    <t>145A3</t>
+  </si>
+  <si>
+    <t>El Qabary</t>
+  </si>
+  <si>
+    <t>146C2</t>
+  </si>
+  <si>
+    <t>Fakoos</t>
+  </si>
+  <si>
+    <t>147C7</t>
+  </si>
+  <si>
+    <t>El Khanka</t>
+  </si>
+  <si>
+    <t>148C12</t>
+  </si>
+  <si>
+    <t>Bab El Khalk</t>
+  </si>
+  <si>
+    <t>149C10</t>
+  </si>
+  <si>
+    <t>El Kolaly</t>
+  </si>
+  <si>
+    <t>150C3</t>
+  </si>
+  <si>
+    <t>El Kanater El Khairia</t>
+  </si>
+  <si>
+    <t>151C2</t>
+  </si>
+  <si>
+    <t>El Qenayat</t>
+  </si>
+  <si>
+    <t>152U5</t>
+  </si>
+  <si>
+    <t>El Qousia</t>
+  </si>
+  <si>
+    <t>153U6</t>
+  </si>
+  <si>
+    <t>El Baliana</t>
+  </si>
+  <si>
+    <t>154C5</t>
+  </si>
+  <si>
+    <t>El Nozha</t>
+  </si>
+  <si>
+    <t>155C5</t>
+  </si>
+  <si>
+    <t>El Korba</t>
+  </si>
+  <si>
+    <t>157A4</t>
+  </si>
+  <si>
+    <t>El Laban</t>
+  </si>
+  <si>
+    <t>158A10</t>
+  </si>
+  <si>
+    <t>El Mahala El Kobra</t>
+  </si>
+  <si>
+    <t>159A8</t>
+  </si>
+  <si>
+    <t>El Mahmoudia</t>
+  </si>
+  <si>
+    <t>15U7</t>
+  </si>
+  <si>
+    <t>Abo Tesht</t>
+  </si>
+  <si>
+    <t>161U6</t>
+  </si>
+  <si>
+    <t>El Maragha</t>
+  </si>
+  <si>
+    <t>162C8</t>
+  </si>
+  <si>
+    <t>El Marg</t>
+  </si>
+  <si>
+    <t>164A6</t>
+  </si>
+  <si>
+    <t>Smoha - Ezbet Saad</t>
+  </si>
+  <si>
+    <t>165C4</t>
+  </si>
+  <si>
+    <t>166C14</t>
+  </si>
+  <si>
+    <t>El Maadi</t>
+  </si>
+  <si>
+    <t>167C14</t>
+  </si>
+  <si>
+    <t>El Maadi El Gedeeda</t>
+  </si>
+  <si>
+    <t>168C14</t>
+  </si>
+  <si>
+    <t>El Maasara</t>
+  </si>
+  <si>
+    <t>169A2</t>
+  </si>
+  <si>
+    <t>El Maamoura</t>
+  </si>
+  <si>
+    <t>170C6</t>
+  </si>
+  <si>
+    <t>Mansheyet Naser</t>
+  </si>
+  <si>
+    <t>171A4</t>
+  </si>
+  <si>
+    <t>El Max</t>
+  </si>
+  <si>
+    <t>172A2</t>
+  </si>
+  <si>
+    <t>Roksi</t>
+  </si>
+  <si>
+    <t>173A2</t>
+  </si>
+  <si>
+    <t>El Mandara</t>
+  </si>
+  <si>
+    <t>174A2</t>
+  </si>
+  <si>
+    <t>El Mandara Qebly</t>
+  </si>
+  <si>
+    <t>175A12</t>
+  </si>
+  <si>
+    <t>El Manzala</t>
+  </si>
+  <si>
+    <t>176U6</t>
+  </si>
+  <si>
+    <t>177A4</t>
+  </si>
+  <si>
+    <t>El Mansheya (Alex)</t>
+  </si>
+  <si>
+    <t>178A11</t>
+  </si>
+  <si>
+    <t>El Mansoura 1</t>
+  </si>
+  <si>
+    <t>179U4</t>
+  </si>
+  <si>
+    <t>El Menia City</t>
+  </si>
+  <si>
+    <t>17U4</t>
+  </si>
+  <si>
+    <t>Abou Korkas</t>
+  </si>
+  <si>
+    <t>180C12</t>
+  </si>
+  <si>
+    <t>Sakyet Mekky</t>
+  </si>
+  <si>
+    <t>181C15</t>
+  </si>
+  <si>
+    <t>El Mohandseen 1</t>
+  </si>
+  <si>
+    <t>183C5</t>
+  </si>
+  <si>
+    <t>185C5</t>
+  </si>
+  <si>
+    <t>El Nozha Elgdeda</t>
+  </si>
+  <si>
+    <t>186A7</t>
+  </si>
+  <si>
+    <t>El Noubaria</t>
+  </si>
+  <si>
+    <t>187C11</t>
+  </si>
+  <si>
+    <t>El Haram</t>
+  </si>
+  <si>
+    <t>188C11</t>
+  </si>
+  <si>
+    <t>Faisal</t>
+  </si>
+  <si>
+    <t>188C13</t>
+  </si>
+  <si>
+    <t>189U3</t>
+  </si>
+  <si>
+    <t>El Wasta</t>
+  </si>
+  <si>
+    <t>18A2</t>
+  </si>
+  <si>
+    <t>Abou Keer</t>
+  </si>
+  <si>
+    <t>190C4</t>
+  </si>
+  <si>
+    <t>191A4</t>
+  </si>
+  <si>
+    <t>El Werdian</t>
+  </si>
+  <si>
+    <t>192U5</t>
+  </si>
+  <si>
+    <t>193C12</t>
+  </si>
+  <si>
+    <t>194C15</t>
+  </si>
+  <si>
+    <t>Embaba</t>
+  </si>
+  <si>
+    <t>195C17</t>
+  </si>
+  <si>
+    <t>195C9</t>
+  </si>
+  <si>
+    <t>196C15</t>
+  </si>
+  <si>
+    <t>197A3</t>
+  </si>
+  <si>
+    <t>El Hadra</t>
+  </si>
+  <si>
+    <t>198U3</t>
+  </si>
+  <si>
+    <t>Ehnasia</t>
+  </si>
+  <si>
+    <t>19C2</t>
+  </si>
+  <si>
+    <t>Abou Kebeer</t>
+  </si>
+  <si>
+    <t>1C14</t>
+  </si>
+  <si>
+    <t>15 May City</t>
+  </si>
+  <si>
+    <t>200U5</t>
+  </si>
+  <si>
+    <t>Sedfa</t>
+  </si>
+  <si>
+    <t>202A8</t>
+  </si>
+  <si>
+    <t>Etay El Baroud</t>
+  </si>
+  <si>
+    <t>205C9</t>
+  </si>
+  <si>
+    <t>Bab El Shereya</t>
+  </si>
+  <si>
+    <t>206C10</t>
+  </si>
+  <si>
+    <t>Bab Ellok 1</t>
+  </si>
+  <si>
+    <t>207C9</t>
+  </si>
+  <si>
+    <t>208A6</t>
+  </si>
+  <si>
+    <t>Baccos - El Raml El Meery</t>
+  </si>
+  <si>
+    <t>209U3</t>
+  </si>
+  <si>
+    <t>Beba</t>
+  </si>
+  <si>
+    <t>210A4</t>
+  </si>
+  <si>
+    <t>Bahary</t>
+  </si>
+  <si>
+    <t>211U6</t>
+  </si>
+  <si>
+    <t>212A14</t>
+  </si>
+  <si>
+    <t>Berket Elsabaa</t>
+  </si>
+  <si>
+    <t>214A10</t>
+  </si>
+  <si>
+    <t>Basiun</t>
+  </si>
+  <si>
+    <t>216C7</t>
+  </si>
+  <si>
+    <t>Belbais</t>
+  </si>
+  <si>
+    <t>217C3</t>
+  </si>
+  <si>
+    <t>Beltan</t>
+  </si>
+  <si>
+    <t>219A7</t>
+  </si>
+  <si>
+    <t>Balteem</t>
+  </si>
+  <si>
+    <t>21A3</t>
+  </si>
+  <si>
+    <t>Abees</t>
+  </si>
+  <si>
+    <t>220A11</t>
+  </si>
+  <si>
+    <t>Belkas</t>
+  </si>
+  <si>
+    <t>221U3</t>
+  </si>
+  <si>
+    <t>Bani Swaif City</t>
+  </si>
+  <si>
+    <t>222C3</t>
+  </si>
+  <si>
+    <t>Banha - Atreeb</t>
+  </si>
+  <si>
+    <t>223U3</t>
+  </si>
+  <si>
+    <t>224U4</t>
+  </si>
+  <si>
+    <t>Bani Mazar</t>
+  </si>
+  <si>
+    <t>225C16</t>
+  </si>
+  <si>
+    <t>Bahteem</t>
+  </si>
+  <si>
+    <t>227A13</t>
+  </si>
+  <si>
+    <t>Port Saed</t>
+  </si>
+  <si>
+    <t>228A13</t>
+  </si>
+  <si>
+    <t>Port Fouad</t>
+  </si>
+  <si>
+    <t>229U3</t>
+  </si>
+  <si>
+    <t>Bosh</t>
+  </si>
+  <si>
+    <t>22A11</t>
+  </si>
+  <si>
+    <t>Aga</t>
+  </si>
+  <si>
+    <t>230C10</t>
+  </si>
+  <si>
+    <t>Bolak Abo El Ela</t>
+  </si>
+  <si>
+    <t>231C11</t>
+  </si>
+  <si>
+    <t>Bolak El Dakroor</t>
+  </si>
+  <si>
+    <t>232A3</t>
+  </si>
+  <si>
+    <t>Bolekly</t>
+  </si>
+  <si>
+    <t>234A14</t>
+  </si>
+  <si>
+    <t>Tala</t>
+  </si>
+  <si>
+    <t>236C14</t>
+  </si>
+  <si>
+    <t>237C10</t>
+  </si>
+  <si>
+    <t>Garden City 1</t>
+  </si>
+  <si>
+    <t>238U6</t>
+  </si>
+  <si>
+    <t>Gerga</t>
+  </si>
+  <si>
+    <t>239C10</t>
+  </si>
+  <si>
+    <t>El Sahel</t>
+  </si>
+  <si>
+    <t>240U6</t>
+  </si>
+  <si>
+    <t>Gezeerat El Hagr</t>
+  </si>
+  <si>
+    <t>241C4</t>
+  </si>
+  <si>
+    <t>Midan El Mahkama</t>
+  </si>
+  <si>
+    <t>242A5</t>
+  </si>
+  <si>
+    <t>Gleem - Stanly</t>
+  </si>
+  <si>
+    <t>243A13</t>
+  </si>
+  <si>
+    <t>Gamasa</t>
+  </si>
+  <si>
+    <t>244A5</t>
+  </si>
+  <si>
+    <t>Ganaklees (Alex)</t>
+  </si>
+  <si>
+    <t>245U6</t>
+  </si>
+  <si>
+    <t>Guhaina</t>
+  </si>
+  <si>
+    <t>246C4</t>
+  </si>
+  <si>
+    <t>247C14</t>
+  </si>
+  <si>
+    <t>Hadayek El Maadi</t>
+  </si>
+  <si>
+    <t>248C14</t>
+  </si>
+  <si>
+    <t>Hadayek Helwan</t>
+  </si>
+  <si>
+    <t>249C8</t>
+  </si>
+  <si>
+    <t>Helmeyet El Zaton</t>
+  </si>
+  <si>
+    <t>24U6</t>
+  </si>
+  <si>
+    <t>Akhmeem</t>
+  </si>
+  <si>
+    <t>250C14</t>
+  </si>
+  <si>
+    <t>Helwan</t>
+  </si>
+  <si>
+    <t>251C4</t>
+  </si>
+  <si>
+    <t>252A8</t>
+  </si>
+  <si>
+    <t>Housh Easa</t>
+  </si>
+  <si>
+    <t>253A5</t>
+  </si>
+  <si>
+    <t>Khorshed</t>
+  </si>
+  <si>
+    <t>254C14</t>
+  </si>
+  <si>
+    <t>Dar Elsalam - Cairo</t>
+  </si>
+  <si>
+    <t>255A7</t>
+  </si>
+  <si>
+    <t>Desouk</t>
+  </si>
+  <si>
+    <t>256U3</t>
+  </si>
+  <si>
+    <t>Samasta</t>
+  </si>
+  <si>
+    <t>257U5</t>
+  </si>
+  <si>
+    <t>Dayrout</t>
+  </si>
+  <si>
+    <t>258U7</t>
+  </si>
+  <si>
+    <t>Deshna</t>
+  </si>
+  <si>
+    <t>259A11</t>
+  </si>
+  <si>
+    <t>Dekernes</t>
+  </si>
+  <si>
+    <t>25U7</t>
+  </si>
+  <si>
+    <t>Edfo</t>
+  </si>
+  <si>
+    <t>261A8</t>
+  </si>
+  <si>
+    <t>Damanhour</t>
+  </si>
+  <si>
+    <t>262A13</t>
+  </si>
+  <si>
+    <t>Domiat</t>
+  </si>
+  <si>
+    <t>264C14</t>
+  </si>
+  <si>
+    <t>Dahshor</t>
+  </si>
+  <si>
+    <t>265U5</t>
+  </si>
+  <si>
+    <t>Abou Teeg</t>
+  </si>
+  <si>
+    <t>267C2</t>
+  </si>
+  <si>
+    <t>Deyarb Negem</t>
+  </si>
+  <si>
+    <t>268U4</t>
+  </si>
+  <si>
+    <t>Dair Mouas</t>
+  </si>
+  <si>
+    <t>269U5</t>
+  </si>
+  <si>
+    <t>26A5</t>
+  </si>
+  <si>
+    <t>Edco</t>
+  </si>
+  <si>
+    <t>270A13</t>
+  </si>
+  <si>
+    <t>Raas El Bar</t>
+  </si>
+  <si>
+    <t>273A3</t>
+  </si>
+  <si>
+    <t>Ragheb</t>
+  </si>
+  <si>
+    <t>274A4</t>
+  </si>
+  <si>
+    <t>El Anfoshy - Ras El Teen</t>
+  </si>
+  <si>
+    <t>275A6</t>
+  </si>
+  <si>
+    <t>Roushdy - Kafr Abdo</t>
+  </si>
+  <si>
+    <t>276A5</t>
+  </si>
+  <si>
+    <t>Rasheed</t>
+  </si>
+  <si>
+    <t>277C10</t>
+  </si>
+  <si>
+    <t>Road El Farag</t>
+  </si>
+  <si>
+    <t>278C4</t>
+  </si>
+  <si>
+    <t>279A10</t>
+  </si>
+  <si>
+    <t>Zefta</t>
+  </si>
+  <si>
+    <t>27C5</t>
+  </si>
+  <si>
+    <t>Ard El Golf</t>
+  </si>
+  <si>
+    <t>280C6</t>
+  </si>
+  <si>
+    <t>Nasr City</t>
+  </si>
+  <si>
+    <t>281A5</t>
+  </si>
+  <si>
+    <t>Zezenia</t>
+  </si>
+  <si>
+    <t>282A5</t>
+  </si>
+  <si>
+    <t>Saba Pasha</t>
+  </si>
+  <si>
+    <t>283U5</t>
+  </si>
+  <si>
+    <t>Sahel Seleem</t>
+  </si>
+  <si>
+    <t>284U6</t>
+  </si>
+  <si>
+    <t>Sakalta</t>
+  </si>
+  <si>
+    <t>285C12</t>
+  </si>
+  <si>
+    <t>287A5</t>
+  </si>
+  <si>
+    <t>San Stefano</t>
+  </si>
+  <si>
+    <t>288A3</t>
+  </si>
+  <si>
+    <t>Sporting</t>
+  </si>
+  <si>
+    <t>28C11</t>
+  </si>
+  <si>
+    <t>Ard El Lewaa</t>
+  </si>
+  <si>
+    <t>291C4</t>
+  </si>
+  <si>
+    <t>292A14</t>
+  </si>
+  <si>
+    <t>Sers Ellayan</t>
+  </si>
+  <si>
+    <t>293U6</t>
+  </si>
+  <si>
+    <t>Sohag City</t>
+  </si>
+  <si>
+    <t>294U4</t>
+  </si>
+  <si>
+    <t>Samalout</t>
+  </si>
+  <si>
+    <t>295U3</t>
+  </si>
+  <si>
+    <t>296A10</t>
+  </si>
+  <si>
+    <t>Samanoud</t>
+  </si>
+  <si>
+    <t>297A3</t>
+  </si>
+  <si>
+    <t>299A14</t>
+  </si>
+  <si>
+    <t>Sentrees</t>
+  </si>
+  <si>
+    <t>29A14</t>
+  </si>
+  <si>
+    <t>Astanha</t>
+  </si>
+  <si>
+    <t>2C11</t>
+  </si>
+  <si>
+    <t>6Th Of October City 1</t>
+  </si>
+  <si>
+    <t>303U2</t>
+  </si>
+  <si>
+    <t>Sanhour</t>
+  </si>
+  <si>
+    <t>304U2</t>
+  </si>
+  <si>
+    <t>Sanours - Sanhour</t>
+  </si>
+  <si>
+    <t>306U6</t>
+  </si>
+  <si>
+    <t>307A2</t>
+  </si>
+  <si>
+    <t>Sidi Beshr Bahary</t>
+  </si>
+  <si>
+    <t>308A5</t>
+  </si>
+  <si>
+    <t>Sidi Beshr Kebly</t>
+  </si>
+  <si>
+    <t>309A6</t>
+  </si>
+  <si>
+    <t>Sidi Gaber</t>
+  </si>
+  <si>
+    <t>30U7</t>
+  </si>
+  <si>
+    <t>Esna</t>
+  </si>
+  <si>
+    <t>310A7</t>
+  </si>
+  <si>
+    <t>Sidi Salem</t>
+  </si>
+  <si>
+    <t>312C10</t>
+  </si>
+  <si>
+    <t>Ahmed Helmy St</t>
+  </si>
+  <si>
+    <t>313C10</t>
+  </si>
+  <si>
+    <t>314C10</t>
+  </si>
+  <si>
+    <t>Kholosy</t>
+  </si>
+  <si>
+    <t>315C5</t>
+  </si>
+  <si>
+    <t>316C10</t>
+  </si>
+  <si>
+    <t>El Mazallat</t>
+  </si>
+  <si>
+    <t>317C5</t>
+  </si>
+  <si>
+    <t>320C16</t>
+  </si>
+  <si>
+    <t>Shobra El Khiema</t>
+  </si>
+  <si>
+    <t>321A8</t>
+  </si>
+  <si>
+    <t>Shobrakheet</t>
+  </si>
+  <si>
+    <t>323A12</t>
+  </si>
+  <si>
+    <t>Sherbeen</t>
+  </si>
+  <si>
+    <t>323C3</t>
+  </si>
+  <si>
+    <t>324A14</t>
+  </si>
+  <si>
+    <t>Shebien El Kom</t>
+  </si>
+  <si>
+    <t>326A14</t>
+  </si>
+  <si>
+    <t>Shatanoof</t>
+  </si>
+  <si>
+    <t>327U6</t>
+  </si>
+  <si>
+    <t>Tahta</t>
+  </si>
+  <si>
+    <t>329A6</t>
+  </si>
+  <si>
+    <t>Shots</t>
+  </si>
+  <si>
+    <t>32U7</t>
+  </si>
+  <si>
+    <t>Aswan City</t>
+  </si>
+  <si>
+    <t>330U5</t>
+  </si>
+  <si>
+    <t>331C13</t>
+  </si>
+  <si>
+    <t>Saft El Laban</t>
+  </si>
+  <si>
+    <t>332U5</t>
+  </si>
+  <si>
+    <t>333U2</t>
+  </si>
+  <si>
+    <t>Tamia</t>
+  </si>
+  <si>
+    <t>334C14</t>
+  </si>
+  <si>
+    <t>Tora El Balad</t>
+  </si>
+  <si>
+    <t>337A11</t>
+  </si>
+  <si>
+    <t>Talkha</t>
+  </si>
+  <si>
+    <t>338U6</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>339A11</t>
+  </si>
+  <si>
+    <t>Tanah</t>
+  </si>
+  <si>
+    <t>340C3</t>
+  </si>
+  <si>
+    <t>Tanan</t>
+  </si>
+  <si>
+    <t>341A9</t>
+  </si>
+  <si>
+    <t>Tanta City</t>
+  </si>
+  <si>
+    <t>342C3</t>
+  </si>
+  <si>
+    <t>Tookh</t>
+  </si>
+  <si>
+    <t>343U6</t>
+  </si>
+  <si>
+    <t>344C3</t>
+  </si>
+  <si>
+    <t>345C10</t>
+  </si>
+  <si>
+    <t>346A14</t>
+  </si>
+  <si>
+    <t>Arab El Raml</t>
+  </si>
+  <si>
+    <t>348A13</t>
+  </si>
+  <si>
+    <t>Ezbet El Borg</t>
+  </si>
+  <si>
+    <t>349C8</t>
+  </si>
+  <si>
+    <t>Ezbet El Nakhl</t>
+  </si>
+  <si>
+    <t>34U5</t>
+  </si>
+  <si>
+    <t>350C8</t>
+  </si>
+  <si>
+    <t>Ain Shams El Sharqeya</t>
+  </si>
+  <si>
+    <t>351C8</t>
+  </si>
+  <si>
+    <t>Ain Shams El Gharbeya</t>
+  </si>
+  <si>
+    <t>352A5</t>
+  </si>
+  <si>
+    <t>Ghobrial - El Mahrosa</t>
+  </si>
+  <si>
+    <t>354A3</t>
+  </si>
+  <si>
+    <t>North Coast</t>
+  </si>
+  <si>
+    <t>356A3</t>
+  </si>
+  <si>
+    <t>357A3</t>
+  </si>
+  <si>
+    <t>Giet El Enab</t>
+  </si>
+  <si>
+    <t>358A13</t>
+  </si>
+  <si>
+    <t>Faraskor</t>
+  </si>
+  <si>
+    <t>359C2</t>
+  </si>
+  <si>
+    <t>35A14</t>
+  </si>
+  <si>
+    <t>Ashmoon</t>
+  </si>
+  <si>
+    <t>360U7</t>
+  </si>
+  <si>
+    <t>Farshout</t>
+  </si>
+  <si>
+    <t>361A6</t>
+  </si>
+  <si>
+    <t>Fleming - El Wezara</t>
+  </si>
+  <si>
+    <t>362A8</t>
+  </si>
+  <si>
+    <t>Fowa</t>
+  </si>
+  <si>
+    <t>363A5</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>364A3</t>
+  </si>
+  <si>
+    <t>365A10</t>
+  </si>
+  <si>
+    <t>Kotour</t>
+  </si>
+  <si>
+    <t>366U7</t>
+  </si>
+  <si>
+    <t>Kaft</t>
+  </si>
+  <si>
+    <t>367C3</t>
+  </si>
+  <si>
+    <t>Kaliub</t>
+  </si>
+  <si>
+    <t>368A7</t>
+  </si>
+  <si>
+    <t>Qeleen</t>
+  </si>
+  <si>
+    <t>369C3</t>
+  </si>
+  <si>
+    <t>36A14</t>
+  </si>
+  <si>
+    <t>370U7</t>
+  </si>
+  <si>
+    <t>Quena City</t>
+  </si>
+  <si>
+    <t>372U7</t>
+  </si>
+  <si>
+    <t>Kous</t>
+  </si>
+  <si>
+    <t>373A14</t>
+  </si>
+  <si>
+    <t>Quesna</t>
+  </si>
+  <si>
+    <t>374A3</t>
+  </si>
+  <si>
+    <t>Kamp Shezar</t>
+  </si>
+  <si>
+    <t>375A3</t>
+  </si>
+  <si>
+    <t>Karmous - Kom El Shoafa</t>
+  </si>
+  <si>
+    <t>376A13</t>
+  </si>
+  <si>
+    <t>Kafr El Bateekh</t>
+  </si>
+  <si>
+    <t>377A8</t>
+  </si>
+  <si>
+    <t>Kafr El Dawar</t>
+  </si>
+  <si>
+    <t>378A9</t>
+  </si>
+  <si>
+    <t>Kafr El Zayat</t>
+  </si>
+  <si>
+    <t>379A7</t>
+  </si>
+  <si>
+    <t>Kafr El Shiekh</t>
+  </si>
+  <si>
+    <t>37U2</t>
+  </si>
+  <si>
+    <t>Etsa</t>
+  </si>
+  <si>
+    <t>382C14</t>
+  </si>
+  <si>
+    <t>384A13</t>
+  </si>
+  <si>
+    <t>Kafr Saad</t>
+  </si>
+  <si>
+    <t>386C3</t>
+  </si>
+  <si>
+    <t>Kafr Shokr</t>
+  </si>
+  <si>
+    <t>387A2</t>
+  </si>
+  <si>
+    <t>Loran</t>
+  </si>
+  <si>
+    <t>387C2</t>
+  </si>
+  <si>
+    <t>Kafr Sakr</t>
+  </si>
+  <si>
+    <t>389C5</t>
+  </si>
+  <si>
+    <t>38C14</t>
+  </si>
+  <si>
+    <t>Etfeeh</t>
+  </si>
+  <si>
+    <t>390A6</t>
+  </si>
+  <si>
+    <t>Celiobatra</t>
+  </si>
+  <si>
+    <t>391C4</t>
+  </si>
+  <si>
+    <t>392C14</t>
+  </si>
+  <si>
+    <t>395A7</t>
+  </si>
+  <si>
+    <t>Kom Hamada</t>
+  </si>
+  <si>
+    <t>396C12</t>
+  </si>
+  <si>
+    <t>398A3</t>
+  </si>
+  <si>
+    <t>Moharam Bek</t>
+  </si>
+  <si>
+    <t>399A3</t>
+  </si>
+  <si>
+    <t>39C10</t>
+  </si>
+  <si>
+    <t>3U2</t>
+  </si>
+  <si>
+    <t>Ebshway</t>
+  </si>
+  <si>
+    <t>400A4</t>
+  </si>
+  <si>
+    <t>Mehatet El Raml</t>
+  </si>
+  <si>
+    <t>402A12</t>
+  </si>
+  <si>
+    <t>Shaha</t>
+  </si>
+  <si>
+    <t>403A7</t>
+  </si>
+  <si>
+    <t>Moderiet El Tahreer</t>
+  </si>
+  <si>
+    <t>405C7</t>
+  </si>
+  <si>
+    <t>Madenet El Salam</t>
+  </si>
+  <si>
+    <t>406C6</t>
+  </si>
+  <si>
+    <t>407C6</t>
+  </si>
+  <si>
+    <t>408A3</t>
+  </si>
+  <si>
+    <t>Marsa Matrouh</t>
+  </si>
+  <si>
+    <t>40A3</t>
+  </si>
+  <si>
+    <t>El Ebrahimia-Alex</t>
+  </si>
+  <si>
+    <t>411C5</t>
+  </si>
+  <si>
+    <t>Masaken Sheraton</t>
+  </si>
+  <si>
+    <t>412C17</t>
+  </si>
+  <si>
+    <t>Agouza</t>
+  </si>
+  <si>
+    <t>413C16</t>
+  </si>
+  <si>
+    <t>Mostorod</t>
+  </si>
+  <si>
+    <t>415C2</t>
+  </si>
+  <si>
+    <t>Mashtoul El Sook</t>
+  </si>
+  <si>
+    <t>416C14</t>
+  </si>
+  <si>
+    <t>Masr El Qadima</t>
+  </si>
+  <si>
+    <t>417A6</t>
+  </si>
+  <si>
+    <t>Mostafa Kamel</t>
+  </si>
+  <si>
+    <t>418A6</t>
+  </si>
+  <si>
+    <t>419U4</t>
+  </si>
+  <si>
+    <t>Matay</t>
+  </si>
+  <si>
+    <t>420A8</t>
+  </si>
+  <si>
+    <t>Metobas</t>
+  </si>
+  <si>
+    <t>421U4</t>
+  </si>
+  <si>
+    <t>Maghagha</t>
+  </si>
+  <si>
+    <t>422U4</t>
+  </si>
+  <si>
+    <t>Malawy</t>
+  </si>
+  <si>
+    <t>424C4</t>
+  </si>
+  <si>
+    <t>Mansheyet El Bakry</t>
+  </si>
+  <si>
+    <t>425C4</t>
+  </si>
+  <si>
+    <t>426A6</t>
+  </si>
+  <si>
+    <t>427C6</t>
+  </si>
+  <si>
+    <t>428U5</t>
+  </si>
+  <si>
+    <t>Manfalout</t>
+  </si>
+  <si>
+    <t>429U5</t>
+  </si>
+  <si>
+    <t>Manqabad</t>
+  </si>
+  <si>
+    <t>42A3</t>
+  </si>
+  <si>
+    <t>Azarita - Kom El Deka</t>
+  </si>
+  <si>
+    <t>430A14</t>
+  </si>
+  <si>
+    <t>Menof</t>
+  </si>
+  <si>
+    <t>431C2</t>
+  </si>
+  <si>
+    <t>Menyet Elkamh</t>
+  </si>
+  <si>
+    <t>432A12</t>
+  </si>
+  <si>
+    <t>Menyet El Nasr</t>
+  </si>
+  <si>
+    <t>433A2</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>435A11</t>
+  </si>
+  <si>
+    <t>Meet Ghamr</t>
+  </si>
+  <si>
+    <t>436C3</t>
+  </si>
+  <si>
+    <t>Meet Kenana</t>
+  </si>
+  <si>
+    <t>438C5</t>
+  </si>
+  <si>
+    <t>Midan El Gamea</t>
+  </si>
+  <si>
+    <t>439C5</t>
+  </si>
+  <si>
+    <t>440C5</t>
+  </si>
+  <si>
+    <t>441C5</t>
+  </si>
+  <si>
+    <t>Almaza</t>
+  </si>
+  <si>
+    <t>443C10</t>
+  </si>
+  <si>
+    <t>444C5</t>
+  </si>
+  <si>
+    <t>446C5</t>
+  </si>
+  <si>
+    <t>448C5</t>
+  </si>
+  <si>
+    <t>449C5</t>
+  </si>
+  <si>
+    <t>44C5</t>
+  </si>
+  <si>
+    <t>Ismaelia City</t>
+  </si>
+  <si>
+    <t>451C11</t>
+  </si>
+  <si>
+    <t>Nahia</t>
+  </si>
+  <si>
+    <t>452A11</t>
+  </si>
+  <si>
+    <t>Nabaroh</t>
+  </si>
+  <si>
+    <t>453U7</t>
+  </si>
+  <si>
+    <t>Nagaa Hamady</t>
+  </si>
+  <si>
+    <t>454C3</t>
+  </si>
+  <si>
+    <t>Nawa</t>
+  </si>
+  <si>
+    <t>455U6</t>
+  </si>
+  <si>
+    <t>456C2</t>
+  </si>
+  <si>
+    <t>Hehya</t>
+  </si>
+  <si>
+    <t>457A3</t>
+  </si>
+  <si>
+    <t>458A7</t>
+  </si>
+  <si>
+    <t>Wady El Natron</t>
+  </si>
+  <si>
+    <t>459C14</t>
+  </si>
+  <si>
+    <t>Wadi Hoof</t>
+  </si>
+  <si>
+    <t>45U7</t>
+  </si>
+  <si>
+    <t>Luxor City</t>
+  </si>
+  <si>
+    <t>461C10</t>
+  </si>
+  <si>
+    <t>462C16</t>
+  </si>
+  <si>
+    <t>South Sinai</t>
+  </si>
+  <si>
+    <t>472U6</t>
+  </si>
+  <si>
+    <t>Dar Elsalam - Sohag</t>
+  </si>
+  <si>
+    <t>47C14</t>
+  </si>
+  <si>
+    <t>486U7</t>
+  </si>
+  <si>
+    <t>Kom Ombo - Draw</t>
+  </si>
+  <si>
+    <t>487U7</t>
+  </si>
+  <si>
+    <t>48C4</t>
+  </si>
+  <si>
+    <t>4U5</t>
+  </si>
+  <si>
+    <t>Abnoub</t>
+  </si>
+  <si>
+    <t>504A11</t>
+  </si>
+  <si>
+    <t>51A14</t>
+  </si>
+  <si>
+    <t>El Bagour</t>
+  </si>
+  <si>
+    <t>52A14</t>
+  </si>
+  <si>
+    <t>El Batanoon</t>
+  </si>
+  <si>
+    <t>536A7</t>
+  </si>
+  <si>
+    <t>Beila</t>
+  </si>
+  <si>
+    <t>53U5</t>
+  </si>
+  <si>
+    <t>El Badary</t>
+  </si>
+  <si>
+    <t>54C14</t>
+  </si>
+  <si>
+    <t>El Badrashien</t>
+  </si>
+  <si>
+    <t>550C10</t>
+  </si>
+  <si>
+    <t>Ramsis 1</t>
+  </si>
+  <si>
+    <t>55C14</t>
+  </si>
+  <si>
+    <t>El Basateen</t>
+  </si>
+  <si>
+    <t>563A3</t>
+  </si>
+  <si>
+    <t>56U5</t>
+  </si>
+  <si>
+    <t>57U6</t>
+  </si>
+  <si>
+    <t>58C14</t>
+  </si>
+  <si>
+    <t>El Tebeen + El Marazeek (El Tebeen)</t>
+  </si>
+  <si>
+    <t>59C7</t>
+  </si>
+  <si>
+    <t>61A12</t>
+  </si>
+  <si>
+    <t>El Gamalia</t>
+  </si>
+  <si>
+    <t>62A4</t>
+  </si>
+  <si>
+    <t>El Gomrok</t>
+  </si>
+  <si>
+    <t>63C12</t>
+  </si>
+  <si>
+    <t>Midan El Giza</t>
+  </si>
+  <si>
+    <t>64A7</t>
+  </si>
+  <si>
+    <t>El Hamoul</t>
+  </si>
+  <si>
+    <t>66C2</t>
+  </si>
+  <si>
+    <t>El Hosenia</t>
+  </si>
+  <si>
+    <t>67A3</t>
+  </si>
+  <si>
+    <t>68A3</t>
+  </si>
+  <si>
+    <t>69A3</t>
+  </si>
+  <si>
+    <t>El Hadra El Gededa</t>
+  </si>
+  <si>
+    <t>6A2</t>
+  </si>
+  <si>
+    <t>Abou El Matameer</t>
+  </si>
+  <si>
+    <t>70A3</t>
+  </si>
+  <si>
+    <t>71U5</t>
+  </si>
+  <si>
+    <t>El Hamam</t>
+  </si>
+  <si>
+    <t>72U5</t>
+  </si>
+  <si>
+    <t>73C12</t>
+  </si>
+  <si>
+    <t>El Hawamdia</t>
+  </si>
+  <si>
+    <t>74C7</t>
+  </si>
+  <si>
+    <t>75A7</t>
+  </si>
+  <si>
+    <t>El Khatatba</t>
+  </si>
+  <si>
+    <t>76C19</t>
+  </si>
+  <si>
+    <t>78A4</t>
+  </si>
+  <si>
+    <t>El Dekhiala</t>
+  </si>
+  <si>
+    <t>79C9</t>
+  </si>
+  <si>
+    <t>7C12</t>
+  </si>
+  <si>
+    <t>Abo El Nomros</t>
+  </si>
+  <si>
+    <t>80C12</t>
+  </si>
+  <si>
+    <t>81C13</t>
+  </si>
+  <si>
+    <t>Dokki</t>
+  </si>
+  <si>
+    <t>81C9</t>
+  </si>
+  <si>
+    <t>82A8</t>
+  </si>
+  <si>
+    <t>El Delengat - Markaz Badr</t>
+  </si>
+  <si>
+    <t>84A5</t>
+  </si>
+  <si>
+    <t>El Raas El Souda</t>
+  </si>
+  <si>
+    <t>86A13</t>
+  </si>
+  <si>
+    <t>El Roda</t>
+  </si>
+  <si>
+    <t>87C13</t>
+  </si>
+  <si>
+    <t>El Manyal 1</t>
+  </si>
+  <si>
+    <t>88A7</t>
+  </si>
+  <si>
+    <t>El Riad</t>
+  </si>
+  <si>
+    <t>8U5</t>
+  </si>
+  <si>
+    <t>90C9</t>
+  </si>
+  <si>
+    <t>El Zawya El Hamra</t>
+  </si>
+  <si>
+    <t>92A13</t>
+  </si>
+  <si>
+    <t>El Zorka</t>
+  </si>
+  <si>
+    <t>93C2</t>
+  </si>
+  <si>
+    <t>El Zakazik City</t>
+  </si>
+  <si>
+    <t>94C17</t>
+  </si>
+  <si>
+    <t>Zamalek</t>
+  </si>
+  <si>
+    <t>95C14</t>
+  </si>
+  <si>
+    <t>96C4</t>
+  </si>
+  <si>
+    <t>El Zaytoun</t>
+  </si>
+  <si>
+    <t>97C10</t>
+  </si>
+  <si>
+    <t>98A3</t>
+  </si>
+  <si>
+    <t>9C2</t>
+  </si>
+  <si>
+    <t>Abo Hammad</t>
+  </si>
+  <si>
+    <t>63C13</t>
+  </si>
+  <si>
+    <t>397A5</t>
+  </si>
+  <si>
+    <t>100C19</t>
+  </si>
+  <si>
+    <t>40A6</t>
+  </si>
+  <si>
+    <t>130A5</t>
+  </si>
+  <si>
+    <t>174A5</t>
+  </si>
+  <si>
+    <t>123A4</t>
+  </si>
+  <si>
+    <t>6A8</t>
+  </si>
+  <si>
+    <t>187C12</t>
+  </si>
+  <si>
+    <t>412C9</t>
+  </si>
+  <si>
+    <t>259A12</t>
+  </si>
+  <si>
+    <t>102C13</t>
+  </si>
+  <si>
+    <t>187C13</t>
+  </si>
+  <si>
+    <t>241C5</t>
+  </si>
+  <si>
+    <t>339A12</t>
+  </si>
+  <si>
+    <t>278C5</t>
+  </si>
+  <si>
+    <t>196C9</t>
+  </si>
+  <si>
+    <t>181C9</t>
+  </si>
+  <si>
+    <t>28C17</t>
+  </si>
+  <si>
+    <t>194C9</t>
+  </si>
+  <si>
+    <t>255A8</t>
+  </si>
+  <si>
+    <t>44C7</t>
+  </si>
+  <si>
+    <t>232A6</t>
+  </si>
+  <si>
+    <t>101A12</t>
+  </si>
+  <si>
+    <t>1C6</t>
+  </si>
+  <si>
+    <t>196C17</t>
+  </si>
+  <si>
+    <t>297A6</t>
+  </si>
+  <si>
+    <t>98A4</t>
+  </si>
+  <si>
+    <t>445C10</t>
+  </si>
+  <si>
+    <t>M0009</t>
+  </si>
+  <si>
+    <t>279A9</t>
+  </si>
+  <si>
+    <t>204C12</t>
+  </si>
+  <si>
+    <t>169A5</t>
+  </si>
+  <si>
+    <t>214A9</t>
+  </si>
+  <si>
+    <t>N9999999</t>
+  </si>
+  <si>
+    <t>New Cairo</t>
+  </si>
+  <si>
+    <t>dist_brickcode</t>
+  </si>
+  <si>
+    <t>brick</t>
+  </si>
+  <si>
+    <t>dist_itemcode</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,13 +2321,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +2610,3559 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B432"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="B1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B67" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B68" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B77" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B78" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B79" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B94" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B95" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B96" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B97" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B100" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B101" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B102" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B103" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B104" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B106" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B108" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B109" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B111" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B112" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B113" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B116" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B117" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B119" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B120" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B121" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B122" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B123" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B124" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B125" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B126" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B127" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B128" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B129" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B130" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B131" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B132" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B133" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B134" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B135" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B136" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B137" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B138" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B140" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B141" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B142" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B143" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B144" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B145" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B146" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B147" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B148" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B150" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B151" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B152" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B153" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B154" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B156" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B157" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B158" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B159" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B160" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B161" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B162" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B163" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B164" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B165" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B166" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B167" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B168" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B169" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B170" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B171" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B172" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B173" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B174" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B175" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B176" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B177" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B178" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B179" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B180" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B181" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B182" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B183" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B184" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B185" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B186" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B187" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B188" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B189" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B190" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B192" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B193" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B194" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B195" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B196" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B197" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B198" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B199" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B200" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B201" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B202" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B203" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B204" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B205" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B206" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B207" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B208" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B209" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B210" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B211" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B212" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B213" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B214" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B215" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B216" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B217" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B218" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B219" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B220" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B221" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B222" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B223" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B224" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B225" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B226" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B227" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B228" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B229" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B230" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B231" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B232" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B233" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B234" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B235" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B236" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B237" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B238" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B239" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B240" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B241" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B242" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B243" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B244" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B245" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B246" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B247" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B248" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B249" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B250" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B251" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B252" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B253" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B254" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B255" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B256" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B257" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B258" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B259" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B260" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B261" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B262" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B263" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B264" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B265" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B266" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B267" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B268" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B269" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B270" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B271" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B272" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B273" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B274" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B275" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B276" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B277" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B278" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B279" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B281" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B282" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B283" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B284" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B285" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B286" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B287" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B288" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B289" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B290" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="B291" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B292" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B293" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="B294" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B295" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B296" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="B297" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B298" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B299" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="B300" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B301" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B302" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B303" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B304" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B305" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B306" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B307" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B308" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B309" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B310" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B311" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B312" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B313" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B314" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B315" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B316" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B317" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B318" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B319" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B320" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B321" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B322" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B323" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B324" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B325" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="B326" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B327" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="B328" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B329" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B330" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B331" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B332" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B333" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B334" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B335" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B336" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B337" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B338" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B339" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B340" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B341" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B342" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B343" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B344" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B345" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B346" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B347" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B348" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B349" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B350" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B351" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B352" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B353" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B354" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B355" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B356" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B357" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B358" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B359" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="B360" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B361" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="B362" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="B363" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B364" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B365" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="B366" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B367" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="B368" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B369" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B370" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B371" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B372" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B373" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B374" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B375" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B376" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="B377" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B378" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="B379" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="B380" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="B381" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="B382" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B383" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="B384" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="B385" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B386" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B387" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B388" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="B389" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B390" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B391" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="B392" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="B393" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="B394" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="B395" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="B396" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B397" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B398" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="B399" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="B400" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="B401" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="B402" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="B403" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B404" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B405" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="B406" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="B407" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="B408" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="B409" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B410" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B411" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B412" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="B413" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B414" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B415" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B416" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B417" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B418" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B419" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="B420" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B421" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B422" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="B423" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="B424" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="B425" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="B426" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="B427" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="B428" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B429" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B430" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B431" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B432" t="s">
+        <v>746</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67AE1FB-095B-4F00-930C-0E7C43E16306}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>13167</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6225000366466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>19252</v>
+      </c>
+      <c r="B3" s="2">
+        <v>6225000366473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>13168</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6225000366480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>8801</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6225000366435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>20879</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6225000366442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>32059</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6225000366459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6414</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6224011259019</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/mapping/map_pos.xlsx
+++ b/mapping/map_pos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sales_repo\mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACDAAF5-8DD6-4763-99AE-10EAC6784E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6ADC0C-DFA4-4B5C-BC6C-83AAF3DB56E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="754">
   <si>
     <t>Abbaseya</t>
   </si>
@@ -2279,14 +2279,24 @@
   </si>
   <si>
     <t>item</t>
+  </si>
+  <si>
+    <t>added_by</t>
+  </si>
+  <si>
+    <t>date_time</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -2325,11 +2335,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2611,3472 +2622,6065 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B432"/>
+  <dimension ref="A1:D432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>747</v>
       </c>
       <c r="B1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>753</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>753</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>753</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>753</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>753</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>753</v>
+      </c>
+      <c r="D10" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>753</v>
+      </c>
+      <c r="D11" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>753</v>
+      </c>
+      <c r="D12" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>753</v>
+      </c>
+      <c r="D13" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>753</v>
+      </c>
+      <c r="D14" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>753</v>
+      </c>
+      <c r="D15" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B16" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>753</v>
+      </c>
+      <c r="D16" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>753</v>
+      </c>
+      <c r="D17" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>753</v>
+      </c>
+      <c r="D18" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>753</v>
+      </c>
+      <c r="D19" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>753</v>
+      </c>
+      <c r="D20" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>753</v>
+      </c>
+      <c r="D21" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>753</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>753</v>
+      </c>
+      <c r="D23" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>753</v>
+      </c>
+      <c r="D24" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>753</v>
+      </c>
+      <c r="D25" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>753</v>
+      </c>
+      <c r="D26" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>753</v>
+      </c>
+      <c r="D27" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>753</v>
+      </c>
+      <c r="D28" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B29" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>753</v>
+      </c>
+      <c r="D29" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>753</v>
+      </c>
+      <c r="D30" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B31" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>753</v>
+      </c>
+      <c r="D31" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>753</v>
+      </c>
+      <c r="D32" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B33" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>753</v>
+      </c>
+      <c r="D33" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>753</v>
+      </c>
+      <c r="D34" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>753</v>
+      </c>
+      <c r="D35" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>753</v>
+      </c>
+      <c r="D36" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>753</v>
+      </c>
+      <c r="D37" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>753</v>
+      </c>
+      <c r="D38" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>753</v>
+      </c>
+      <c r="D39" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>753</v>
+      </c>
+      <c r="D40" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>753</v>
+      </c>
+      <c r="D41" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>753</v>
+      </c>
+      <c r="D42" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>753</v>
+      </c>
+      <c r="D43" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>753</v>
+      </c>
+      <c r="D44" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B45" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>753</v>
+      </c>
+      <c r="D45" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B46" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>753</v>
+      </c>
+      <c r="D46" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>753</v>
+      </c>
+      <c r="D47" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B48" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>753</v>
+      </c>
+      <c r="D48" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>753</v>
+      </c>
+      <c r="D49" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>753</v>
+      </c>
+      <c r="D50" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B51" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>753</v>
+      </c>
+      <c r="D51" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>753</v>
+      </c>
+      <c r="D52" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B53" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>753</v>
+      </c>
+      <c r="D53" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B54" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>753</v>
+      </c>
+      <c r="D54" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B55" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>753</v>
+      </c>
+      <c r="D55" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B56" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>753</v>
+      </c>
+      <c r="D56" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B57" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>753</v>
+      </c>
+      <c r="D57" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B58" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>753</v>
+      </c>
+      <c r="D58" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B59" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>753</v>
+      </c>
+      <c r="D59" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B60" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>753</v>
+      </c>
+      <c r="D60" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B61" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>753</v>
+      </c>
+      <c r="D61" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B62" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>753</v>
+      </c>
+      <c r="D62" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B63" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>753</v>
+      </c>
+      <c r="D63" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B64" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>753</v>
+      </c>
+      <c r="D64" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B65" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>753</v>
+      </c>
+      <c r="D65" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B66" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>753</v>
+      </c>
+      <c r="D66" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B67" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>753</v>
+      </c>
+      <c r="D67" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B68" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>753</v>
+      </c>
+      <c r="D68" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B69" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>753</v>
+      </c>
+      <c r="D69" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B70" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>753</v>
+      </c>
+      <c r="D70" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B71" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>753</v>
+      </c>
+      <c r="D71" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>753</v>
+      </c>
+      <c r="D72" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B73" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>753</v>
+      </c>
+      <c r="D73" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B74" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>753</v>
+      </c>
+      <c r="D74" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B75" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>753</v>
+      </c>
+      <c r="D75" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B76" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>753</v>
+      </c>
+      <c r="D76" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B77" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>753</v>
+      </c>
+      <c r="D77" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B78" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>753</v>
+      </c>
+      <c r="D78" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B79" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>753</v>
+      </c>
+      <c r="D79" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B80" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>753</v>
+      </c>
+      <c r="D80" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B81" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>753</v>
+      </c>
+      <c r="D81" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B82" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>753</v>
+      </c>
+      <c r="D82" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B83" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>753</v>
+      </c>
+      <c r="D83" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B84" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>753</v>
+      </c>
+      <c r="D84" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B85" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>753</v>
+      </c>
+      <c r="D85" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B86" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>753</v>
+      </c>
+      <c r="D86" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B87" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>753</v>
+      </c>
+      <c r="D87" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B88" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>753</v>
+      </c>
+      <c r="D88" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B89" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>753</v>
+      </c>
+      <c r="D89" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B90" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>753</v>
+      </c>
+      <c r="D90" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B91" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>753</v>
+      </c>
+      <c r="D91" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B92" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>753</v>
+      </c>
+      <c r="D92" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B93" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>753</v>
+      </c>
+      <c r="D93" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B94" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>753</v>
+      </c>
+      <c r="D94" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B95" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>753</v>
+      </c>
+      <c r="D95" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B96" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>753</v>
+      </c>
+      <c r="D96" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B97" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>753</v>
+      </c>
+      <c r="D97" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B98" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>753</v>
+      </c>
+      <c r="D98" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B99" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>753</v>
+      </c>
+      <c r="D99" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B100" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C100" t="s">
+        <v>753</v>
+      </c>
+      <c r="D100" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B101" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C101" t="s">
+        <v>753</v>
+      </c>
+      <c r="D101" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B102" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>753</v>
+      </c>
+      <c r="D102" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B103" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>753</v>
+      </c>
+      <c r="D103" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B104" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>753</v>
+      </c>
+      <c r="D104" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B105" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>753</v>
+      </c>
+      <c r="D105" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B106" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>753</v>
+      </c>
+      <c r="D106" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B107" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C107" t="s">
+        <v>753</v>
+      </c>
+      <c r="D107" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B108" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>753</v>
+      </c>
+      <c r="D108" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B109" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>753</v>
+      </c>
+      <c r="D109" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B110" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>753</v>
+      </c>
+      <c r="D110" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B111" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>753</v>
+      </c>
+      <c r="D111" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B112" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>753</v>
+      </c>
+      <c r="D112" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B113" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>753</v>
+      </c>
+      <c r="D113" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B114" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>753</v>
+      </c>
+      <c r="D114" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B115" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>753</v>
+      </c>
+      <c r="D115" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B116" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>753</v>
+      </c>
+      <c r="D116" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B117" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>753</v>
+      </c>
+      <c r="D117" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B118" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>753</v>
+      </c>
+      <c r="D118" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B119" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>753</v>
+      </c>
+      <c r="D119" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B120" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>753</v>
+      </c>
+      <c r="D120" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B121" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>753</v>
+      </c>
+      <c r="D121" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B122" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>753</v>
+      </c>
+      <c r="D122" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B123" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>753</v>
+      </c>
+      <c r="D123" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>233</v>
       </c>
       <c r="B124" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>753</v>
+      </c>
+      <c r="D124" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>235</v>
       </c>
       <c r="B125" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>753</v>
+      </c>
+      <c r="D125" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>237</v>
       </c>
       <c r="B126" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>753</v>
+      </c>
+      <c r="D126" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>239</v>
       </c>
       <c r="B127" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>753</v>
+      </c>
+      <c r="D127" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>241</v>
       </c>
       <c r="B128" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>753</v>
+      </c>
+      <c r="D128" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B129" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>753</v>
+      </c>
+      <c r="D129" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>244</v>
       </c>
       <c r="B130" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>753</v>
+      </c>
+      <c r="D130" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>246</v>
       </c>
       <c r="B131" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>753</v>
+      </c>
+      <c r="D131" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B132" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>753</v>
+      </c>
+      <c r="D132" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B133" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>753</v>
+      </c>
+      <c r="D133" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>252</v>
       </c>
       <c r="B134" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C134" t="s">
+        <v>753</v>
+      </c>
+      <c r="D134" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B135" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>753</v>
+      </c>
+      <c r="D135" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B136" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>753</v>
+      </c>
+      <c r="D136" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B137" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>753</v>
+      </c>
+      <c r="D137" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B138" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>753</v>
+      </c>
+      <c r="D138" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B139" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>753</v>
+      </c>
+      <c r="D139" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>263</v>
       </c>
       <c r="B140" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>753</v>
+      </c>
+      <c r="D140" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>265</v>
       </c>
       <c r="B141" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>753</v>
+      </c>
+      <c r="D141" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>267</v>
       </c>
       <c r="B142" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>753</v>
+      </c>
+      <c r="D142" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>269</v>
       </c>
       <c r="B143" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>753</v>
+      </c>
+      <c r="D143" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>271</v>
       </c>
       <c r="B144" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>753</v>
+      </c>
+      <c r="D144" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>273</v>
       </c>
       <c r="B145" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>753</v>
+      </c>
+      <c r="D145" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>275</v>
       </c>
       <c r="B146" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>753</v>
+      </c>
+      <c r="D146" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B147" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>753</v>
+      </c>
+      <c r="D147" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>279</v>
       </c>
       <c r="B148" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>753</v>
+      </c>
+      <c r="D148" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>281</v>
       </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>753</v>
+      </c>
+      <c r="D149" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B150" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C150" t="s">
+        <v>753</v>
+      </c>
+      <c r="D150" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B151" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>753</v>
+      </c>
+      <c r="D151" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B152" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>753</v>
+      </c>
+      <c r="D152" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B153" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>753</v>
+      </c>
+      <c r="D153" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>290</v>
       </c>
       <c r="B154" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>753</v>
+      </c>
+      <c r="D154" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>292</v>
       </c>
       <c r="B155" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>753</v>
+      </c>
+      <c r="D155" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>293</v>
       </c>
       <c r="B156" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>753</v>
+      </c>
+      <c r="D156" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B157" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>753</v>
+      </c>
+      <c r="D157" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>297</v>
       </c>
       <c r="B158" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>753</v>
+      </c>
+      <c r="D158" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B159" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>753</v>
+      </c>
+      <c r="D159" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>301</v>
       </c>
       <c r="B160" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>753</v>
+      </c>
+      <c r="D160" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>303</v>
       </c>
       <c r="B161" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>753</v>
+      </c>
+      <c r="D161" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B162" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C162" t="s">
+        <v>753</v>
+      </c>
+      <c r="D162" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>307</v>
       </c>
       <c r="B163" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C163" t="s">
+        <v>753</v>
+      </c>
+      <c r="D163" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B164" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C164" t="s">
+        <v>753</v>
+      </c>
+      <c r="D164" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B165" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>753</v>
+      </c>
+      <c r="D165" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>313</v>
       </c>
       <c r="B166" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>753</v>
+      </c>
+      <c r="D166" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B167" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>753</v>
+      </c>
+      <c r="D167" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B168" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>753</v>
+      </c>
+      <c r="D168" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B169" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>753</v>
+      </c>
+      <c r="D169" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>321</v>
       </c>
       <c r="B170" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>753</v>
+      </c>
+      <c r="D170" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B171" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>753</v>
+      </c>
+      <c r="D171" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>324</v>
       </c>
       <c r="B172" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>753</v>
+      </c>
+      <c r="D172" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B173" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>753</v>
+      </c>
+      <c r="D173" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>328</v>
       </c>
       <c r="B174" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>753</v>
+      </c>
+      <c r="D174" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>330</v>
       </c>
       <c r="B175" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>753</v>
+      </c>
+      <c r="D175" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B176" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>753</v>
+      </c>
+      <c r="D176" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>334</v>
       </c>
       <c r="B177" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C177" t="s">
+        <v>753</v>
+      </c>
+      <c r="D177" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>336</v>
       </c>
       <c r="B178" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>753</v>
+      </c>
+      <c r="D178" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B179" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>753</v>
+      </c>
+      <c r="D179" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>339</v>
       </c>
       <c r="B180" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>753</v>
+      </c>
+      <c r="D180" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>341</v>
       </c>
       <c r="B181" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>753</v>
+      </c>
+      <c r="D181" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>343</v>
       </c>
       <c r="B182" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>753</v>
+      </c>
+      <c r="D182" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>345</v>
       </c>
       <c r="B183" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>753</v>
+      </c>
+      <c r="D183" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B184" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
+        <v>753</v>
+      </c>
+      <c r="D184" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>349</v>
       </c>
       <c r="B185" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>753</v>
+      </c>
+      <c r="D185" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B186" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
+        <v>753</v>
+      </c>
+      <c r="D186" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>353</v>
       </c>
       <c r="B187" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
+        <v>753</v>
+      </c>
+      <c r="D187" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>354</v>
       </c>
       <c r="B188" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>753</v>
+      </c>
+      <c r="D188" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>356</v>
       </c>
       <c r="B189" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
+        <v>753</v>
+      </c>
+      <c r="D189" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>358</v>
       </c>
       <c r="B190" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C190" t="s">
+        <v>753</v>
+      </c>
+      <c r="D190" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>360</v>
       </c>
       <c r="B191" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C191" t="s">
+        <v>753</v>
+      </c>
+      <c r="D191" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B192" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C192" t="s">
+        <v>753</v>
+      </c>
+      <c r="D192" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>363</v>
       </c>
       <c r="B193" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>753</v>
+      </c>
+      <c r="D193" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B194" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>753</v>
+      </c>
+      <c r="D194" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B195" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>753</v>
+      </c>
+      <c r="D195" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>368</v>
       </c>
       <c r="B196" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>753</v>
+      </c>
+      <c r="D196" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B197" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>753</v>
+      </c>
+      <c r="D197" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B198" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>753</v>
+      </c>
+      <c r="D198" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B199" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C199" t="s">
+        <v>753</v>
+      </c>
+      <c r="D199" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>375</v>
       </c>
       <c r="B200" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>753</v>
+      </c>
+      <c r="D200" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>377</v>
       </c>
       <c r="B201" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>753</v>
+      </c>
+      <c r="D201" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B202" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C202" t="s">
+        <v>753</v>
+      </c>
+      <c r="D202" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B203" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>753</v>
+      </c>
+      <c r="D203" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>382</v>
       </c>
       <c r="B204" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>753</v>
+      </c>
+      <c r="D204" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B205" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C205" t="s">
+        <v>753</v>
+      </c>
+      <c r="D205" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B206" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
+        <v>753</v>
+      </c>
+      <c r="D206" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B207" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>753</v>
+      </c>
+      <c r="D207" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B208" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>753</v>
+      </c>
+      <c r="D208" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B209" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>753</v>
+      </c>
+      <c r="D209" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>394</v>
       </c>
       <c r="B210" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>753</v>
+      </c>
+      <c r="D210" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>395</v>
       </c>
       <c r="B211" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>753</v>
+      </c>
+      <c r="D211" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>397</v>
       </c>
       <c r="B212" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>753</v>
+      </c>
+      <c r="D212" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>398</v>
       </c>
       <c r="B213" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>753</v>
+      </c>
+      <c r="D213" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B214" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>753</v>
+      </c>
+      <c r="D214" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>401</v>
       </c>
       <c r="B215" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>753</v>
+      </c>
+      <c r="D215" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>403</v>
       </c>
       <c r="B216" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>753</v>
+      </c>
+      <c r="D216" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>405</v>
       </c>
       <c r="B217" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C217" t="s">
+        <v>753</v>
+      </c>
+      <c r="D217" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>407</v>
       </c>
       <c r="B218" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C218" t="s">
+        <v>753</v>
+      </c>
+      <c r="D218" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>408</v>
       </c>
       <c r="B219" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
+        <v>753</v>
+      </c>
+      <c r="D219" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B220" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>753</v>
+      </c>
+      <c r="D220" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>412</v>
       </c>
       <c r="B221" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
+        <v>753</v>
+      </c>
+      <c r="D221" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>414</v>
       </c>
       <c r="B222" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
+        <v>753</v>
+      </c>
+      <c r="D222" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>416</v>
       </c>
       <c r="B223" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
+        <v>753</v>
+      </c>
+      <c r="D223" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>418</v>
       </c>
       <c r="B224" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
+        <v>753</v>
+      </c>
+      <c r="D224" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>419</v>
       </c>
       <c r="B225" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
+        <v>753</v>
+      </c>
+      <c r="D225" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>421</v>
       </c>
       <c r="B226" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
+        <v>753</v>
+      </c>
+      <c r="D226" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B227" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
+        <v>753</v>
+      </c>
+      <c r="D227" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>424</v>
       </c>
       <c r="B228" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
+        <v>753</v>
+      </c>
+      <c r="D228" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>426</v>
       </c>
       <c r="B229" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>753</v>
+      </c>
+      <c r="D229" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>428</v>
       </c>
       <c r="B230" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
+        <v>753</v>
+      </c>
+      <c r="D230" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B231" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C231" t="s">
+        <v>753</v>
+      </c>
+      <c r="D231" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
         <v>432</v>
       </c>
       <c r="B232" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
+        <v>753</v>
+      </c>
+      <c r="D232" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>434</v>
       </c>
       <c r="B233" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C233" t="s">
+        <v>753</v>
+      </c>
+      <c r="D233" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>436</v>
       </c>
       <c r="B234" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C234" t="s">
+        <v>753</v>
+      </c>
+      <c r="D234" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>438</v>
       </c>
       <c r="B235" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>753</v>
+      </c>
+      <c r="D235" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>439</v>
       </c>
       <c r="B236" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
+        <v>753</v>
+      </c>
+      <c r="D236" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
         <v>440</v>
       </c>
       <c r="B237" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>753</v>
+      </c>
+      <c r="D237" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>441</v>
       </c>
       <c r="B238" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
+        <v>753</v>
+      </c>
+      <c r="D238" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B239" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C239" t="s">
+        <v>753</v>
+      </c>
+      <c r="D239" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>445</v>
       </c>
       <c r="B240" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C240" t="s">
+        <v>753</v>
+      </c>
+      <c r="D240" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>447</v>
       </c>
       <c r="B241" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C241" t="s">
+        <v>753</v>
+      </c>
+      <c r="D241" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
         <v>448</v>
       </c>
       <c r="B242" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C242" t="s">
+        <v>753</v>
+      </c>
+      <c r="D242" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>450</v>
       </c>
       <c r="B243" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C243" t="s">
+        <v>753</v>
+      </c>
+      <c r="D243" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>452</v>
       </c>
       <c r="B244" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C244" t="s">
+        <v>753</v>
+      </c>
+      <c r="D244" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>454</v>
       </c>
       <c r="B245" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C245" t="s">
+        <v>753</v>
+      </c>
+      <c r="D245" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>456</v>
       </c>
       <c r="B246" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
+        <v>753</v>
+      </c>
+      <c r="D246" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>457</v>
       </c>
       <c r="B247" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C247" t="s">
+        <v>753</v>
+      </c>
+      <c r="D247" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
         <v>459</v>
       </c>
       <c r="B248" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C248" t="s">
+        <v>753</v>
+      </c>
+      <c r="D248" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>461</v>
       </c>
       <c r="B249" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C249" t="s">
+        <v>753</v>
+      </c>
+      <c r="D249" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>462</v>
       </c>
       <c r="B250" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C250" t="s">
+        <v>753</v>
+      </c>
+      <c r="D250" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>464</v>
       </c>
       <c r="B251" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C251" t="s">
+        <v>753</v>
+      </c>
+      <c r="D251" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>466</v>
       </c>
       <c r="B252" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C252" t="s">
+        <v>753</v>
+      </c>
+      <c r="D252" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
         <v>468</v>
       </c>
       <c r="B253" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C253" t="s">
+        <v>753</v>
+      </c>
+      <c r="D253" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B254" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C254" t="s">
+        <v>753</v>
+      </c>
+      <c r="D254" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>472</v>
       </c>
       <c r="B255" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C255" t="s">
+        <v>753</v>
+      </c>
+      <c r="D255" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>473</v>
       </c>
       <c r="B256" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C256" t="s">
+        <v>753</v>
+      </c>
+      <c r="D256" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>475</v>
       </c>
       <c r="B257" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C257" t="s">
+        <v>753</v>
+      </c>
+      <c r="D257" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
         <v>477</v>
       </c>
       <c r="B258" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C258" t="s">
+        <v>753</v>
+      </c>
+      <c r="D258" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>479</v>
       </c>
       <c r="B259" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C259" t="s">
+        <v>753</v>
+      </c>
+      <c r="D259" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>481</v>
       </c>
       <c r="B260" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C260" t="s">
+        <v>753</v>
+      </c>
+      <c r="D260" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>482</v>
       </c>
       <c r="B261" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C261" t="s">
+        <v>753</v>
+      </c>
+      <c r="D261" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>483</v>
       </c>
       <c r="B262" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C262" t="s">
+        <v>753</v>
+      </c>
+      <c r="D262" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
         <v>485</v>
       </c>
       <c r="B263" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C263" t="s">
+        <v>753</v>
+      </c>
+      <c r="D263" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>487</v>
       </c>
       <c r="B264" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C264" t="s">
+        <v>753</v>
+      </c>
+      <c r="D264" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>489</v>
       </c>
       <c r="B265" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C265" t="s">
+        <v>753</v>
+      </c>
+      <c r="D265" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B266" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C266" t="s">
+        <v>753</v>
+      </c>
+      <c r="D266" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
         <v>493</v>
       </c>
       <c r="B267" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C267" t="s">
+        <v>753</v>
+      </c>
+      <c r="D267" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>495</v>
       </c>
       <c r="B268" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C268" t="s">
+        <v>753</v>
+      </c>
+      <c r="D268" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>497</v>
       </c>
       <c r="B269" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C269" t="s">
+        <v>753</v>
+      </c>
+      <c r="D269" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>499</v>
       </c>
       <c r="B270" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C270" t="s">
+        <v>753</v>
+      </c>
+      <c r="D270" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>501</v>
       </c>
       <c r="B271" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C271" t="s">
+        <v>753</v>
+      </c>
+      <c r="D271" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
         <v>503</v>
       </c>
       <c r="B272" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C272" t="s">
+        <v>753</v>
+      </c>
+      <c r="D272" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
         <v>504</v>
       </c>
       <c r="B273" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C273" t="s">
+        <v>753</v>
+      </c>
+      <c r="D273" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
         <v>506</v>
       </c>
       <c r="B274" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C274" t="s">
+        <v>753</v>
+      </c>
+      <c r="D274" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B275" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C275" t="s">
+        <v>753</v>
+      </c>
+      <c r="D275" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>510</v>
       </c>
       <c r="B276" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C276" t="s">
+        <v>753</v>
+      </c>
+      <c r="D276" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B277" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C277" t="s">
+        <v>753</v>
+      </c>
+      <c r="D277" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>513</v>
       </c>
       <c r="B278" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C278" t="s">
+        <v>753</v>
+      </c>
+      <c r="D278" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" s="1" t="s">
         <v>515</v>
       </c>
       <c r="B279" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C279" t="s">
+        <v>753</v>
+      </c>
+      <c r="D279" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>517</v>
       </c>
       <c r="B280" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C280" t="s">
+        <v>753</v>
+      </c>
+      <c r="D280" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>518</v>
       </c>
       <c r="B281" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C281" t="s">
+        <v>753</v>
+      </c>
+      <c r="D281" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>519</v>
       </c>
       <c r="B282" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C282" t="s">
+        <v>753</v>
+      </c>
+      <c r="D282" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>521</v>
       </c>
       <c r="B283" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C283" t="s">
+        <v>753</v>
+      </c>
+      <c r="D283" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>522</v>
       </c>
       <c r="B284" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C284" t="s">
+        <v>753</v>
+      </c>
+      <c r="D284" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" s="1" t="s">
         <v>524</v>
       </c>
       <c r="B285" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C285" t="s">
+        <v>753</v>
+      </c>
+      <c r="D285" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>525</v>
       </c>
       <c r="B286" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C286" t="s">
+        <v>753</v>
+      </c>
+      <c r="D286" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>526</v>
       </c>
       <c r="B287" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C287" t="s">
+        <v>753</v>
+      </c>
+      <c r="D287" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>528</v>
       </c>
       <c r="B288" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C288" t="s">
+        <v>753</v>
+      </c>
+      <c r="D288" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>530</v>
       </c>
       <c r="B289" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C289" t="s">
+        <v>753</v>
+      </c>
+      <c r="D289" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>532</v>
       </c>
       <c r="B290" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C290" t="s">
+        <v>753</v>
+      </c>
+      <c r="D290" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>534</v>
       </c>
       <c r="B291" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C291" t="s">
+        <v>753</v>
+      </c>
+      <c r="D291" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>536</v>
       </c>
       <c r="B292" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C292" t="s">
+        <v>753</v>
+      </c>
+      <c r="D292" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>537</v>
       </c>
       <c r="B293" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C293" t="s">
+        <v>753</v>
+      </c>
+      <c r="D293" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>538</v>
       </c>
       <c r="B294" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C294" t="s">
+        <v>753</v>
+      </c>
+      <c r="D294" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>540</v>
       </c>
       <c r="B295" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C295" t="s">
+        <v>753</v>
+      </c>
+      <c r="D295" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>542</v>
       </c>
       <c r="B296" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C296" t="s">
+        <v>753</v>
+      </c>
+      <c r="D296" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>544</v>
       </c>
       <c r="B297" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C297" t="s">
+        <v>753</v>
+      </c>
+      <c r="D297" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>546</v>
       </c>
       <c r="B298" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C298" t="s">
+        <v>753</v>
+      </c>
+      <c r="D298" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>548</v>
       </c>
       <c r="B299" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C299" t="s">
+        <v>753</v>
+      </c>
+      <c r="D299" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>550</v>
       </c>
       <c r="B300" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C300" t="s">
+        <v>753</v>
+      </c>
+      <c r="D300" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="1" t="s">
         <v>552</v>
       </c>
       <c r="B301" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C301" t="s">
+        <v>753</v>
+      </c>
+      <c r="D301" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>554</v>
       </c>
       <c r="B302" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C302" t="s">
+        <v>753</v>
+      </c>
+      <c r="D302" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>555</v>
       </c>
       <c r="B303" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C303" t="s">
+        <v>753</v>
+      </c>
+      <c r="D303" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>557</v>
       </c>
       <c r="B304" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C304" t="s">
+        <v>753</v>
+      </c>
+      <c r="D304" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>559</v>
       </c>
       <c r="B305" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C305" t="s">
+        <v>753</v>
+      </c>
+      <c r="D305" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>561</v>
       </c>
       <c r="B306" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C306" t="s">
+        <v>753</v>
+      </c>
+      <c r="D306" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>563</v>
       </c>
       <c r="B307" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C307" t="s">
+        <v>753</v>
+      </c>
+      <c r="D307" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B308" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C308" t="s">
+        <v>753</v>
+      </c>
+      <c r="D308" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" s="1" t="s">
         <v>566</v>
       </c>
       <c r="B309" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C309" t="s">
+        <v>753</v>
+      </c>
+      <c r="D309" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>567</v>
       </c>
       <c r="B310" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C310" t="s">
+        <v>753</v>
+      </c>
+      <c r="D310" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>568</v>
       </c>
       <c r="B311" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C311" t="s">
+        <v>753</v>
+      </c>
+      <c r="D311" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>570</v>
       </c>
       <c r="B312" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C312" t="s">
+        <v>753</v>
+      </c>
+      <c r="D312" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>572</v>
       </c>
       <c r="B313" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C313" t="s">
+        <v>753</v>
+      </c>
+      <c r="D313" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>574</v>
       </c>
       <c r="B314" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C314" t="s">
+        <v>753</v>
+      </c>
+      <c r="D314" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>576</v>
       </c>
       <c r="B315" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C315" t="s">
+        <v>753</v>
+      </c>
+      <c r="D315" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>578</v>
       </c>
       <c r="B316" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C316" t="s">
+        <v>753</v>
+      </c>
+      <c r="D316" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>580</v>
       </c>
       <c r="B317" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C317" t="s">
+        <v>753</v>
+      </c>
+      <c r="D317" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>582</v>
       </c>
       <c r="B318" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C318" t="s">
+        <v>753</v>
+      </c>
+      <c r="D318" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>584</v>
       </c>
       <c r="B319" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C319" t="s">
+        <v>753</v>
+      </c>
+      <c r="D319" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>586</v>
       </c>
       <c r="B320" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C320" t="s">
+        <v>753</v>
+      </c>
+      <c r="D320" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>588</v>
       </c>
       <c r="B321" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C321" t="s">
+        <v>753</v>
+      </c>
+      <c r="D321" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" s="1" t="s">
         <v>589</v>
       </c>
       <c r="B322" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C322" t="s">
+        <v>753</v>
+      </c>
+      <c r="D322" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>590</v>
       </c>
       <c r="B323" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C323" t="s">
+        <v>753</v>
+      </c>
+      <c r="D323" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>592</v>
       </c>
       <c r="B324" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C324" t="s">
+        <v>753</v>
+      </c>
+      <c r="D324" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>593</v>
       </c>
       <c r="B325" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C325" t="s">
+        <v>753</v>
+      </c>
+      <c r="D325" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>594</v>
       </c>
       <c r="B326" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C326" t="s">
+        <v>753</v>
+      </c>
+      <c r="D326" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" s="1" t="s">
         <v>595</v>
       </c>
       <c r="B327" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C327" t="s">
+        <v>753</v>
+      </c>
+      <c r="D327" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>596</v>
       </c>
       <c r="B328" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C328" t="s">
+        <v>753</v>
+      </c>
+      <c r="D328" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>597</v>
       </c>
       <c r="B329" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C329" t="s">
+        <v>753</v>
+      </c>
+      <c r="D329" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>599</v>
       </c>
       <c r="B330" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C330" t="s">
+        <v>753</v>
+      </c>
+      <c r="D330" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
         <v>601</v>
       </c>
       <c r="B331" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C331" t="s">
+        <v>753</v>
+      </c>
+      <c r="D331" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>603</v>
       </c>
       <c r="B332" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C332" t="s">
+        <v>753</v>
+      </c>
+      <c r="D332" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>605</v>
       </c>
       <c r="B333" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C333" t="s">
+        <v>753</v>
+      </c>
+      <c r="D333" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>607</v>
       </c>
       <c r="B334" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C334" t="s">
+        <v>753</v>
+      </c>
+      <c r="D334" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>608</v>
       </c>
       <c r="B335" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C335" t="s">
+        <v>753</v>
+      </c>
+      <c r="D335" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>610</v>
       </c>
       <c r="B336" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C336" t="s">
+        <v>753</v>
+      </c>
+      <c r="D336" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>611</v>
       </c>
       <c r="B337" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C337" t="s">
+        <v>753</v>
+      </c>
+      <c r="D337" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>613</v>
       </c>
       <c r="B338" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C338" t="s">
+        <v>753</v>
+      </c>
+      <c r="D338" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>615</v>
       </c>
       <c r="B339" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C339" t="s">
+        <v>753</v>
+      </c>
+      <c r="D339" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>617</v>
       </c>
       <c r="B340" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C340" t="s">
+        <v>753</v>
+      </c>
+      <c r="D340" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>618</v>
       </c>
       <c r="B341" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C341" t="s">
+        <v>753</v>
+      </c>
+      <c r="D341" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
         <v>620</v>
       </c>
       <c r="B342" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C342" t="s">
+        <v>753</v>
+      </c>
+      <c r="D342" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>622</v>
       </c>
       <c r="B343" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C343" t="s">
+        <v>753</v>
+      </c>
+      <c r="D343" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>623</v>
       </c>
       <c r="B344" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C344" t="s">
+        <v>753</v>
+      </c>
+      <c r="D344" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>625</v>
       </c>
       <c r="B345" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C345" t="s">
+        <v>753</v>
+      </c>
+      <c r="D345" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
         <v>626</v>
       </c>
       <c r="B346" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C346" t="s">
+        <v>753</v>
+      </c>
+      <c r="D346" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
         <v>627</v>
       </c>
       <c r="B347" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C347" t="s">
+        <v>753</v>
+      </c>
+      <c r="D347" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
         <v>629</v>
       </c>
       <c r="B348" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C348" t="s">
+        <v>753</v>
+      </c>
+      <c r="D348" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>630</v>
       </c>
       <c r="B349" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C349" t="s">
+        <v>753</v>
+      </c>
+      <c r="D349" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>632</v>
       </c>
       <c r="B350" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C350" t="s">
+        <v>753</v>
+      </c>
+      <c r="D350" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>634</v>
       </c>
       <c r="B351" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C351" t="s">
+        <v>753</v>
+      </c>
+      <c r="D351" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>636</v>
       </c>
       <c r="B352" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C352" t="s">
+        <v>753</v>
+      </c>
+      <c r="D352" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>638</v>
       </c>
       <c r="B353" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C353" t="s">
+        <v>753</v>
+      </c>
+      <c r="D353" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>640</v>
       </c>
       <c r="B354" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C354" t="s">
+        <v>753</v>
+      </c>
+      <c r="D354" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>642</v>
       </c>
       <c r="B355" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C355" t="s">
+        <v>753</v>
+      </c>
+      <c r="D355" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>644</v>
       </c>
       <c r="B356" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C356" t="s">
+        <v>753</v>
+      </c>
+      <c r="D356" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>645</v>
       </c>
       <c r="B357" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C357" t="s">
+        <v>753</v>
+      </c>
+      <c r="D357" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>646</v>
       </c>
       <c r="B358" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C358" t="s">
+        <v>753</v>
+      </c>
+      <c r="D358" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>647</v>
       </c>
       <c r="B359" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C359" t="s">
+        <v>753</v>
+      </c>
+      <c r="D359" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>649</v>
       </c>
       <c r="B360" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C360" t="s">
+        <v>753</v>
+      </c>
+      <c r="D360" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>650</v>
       </c>
       <c r="B361" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C361" t="s">
+        <v>753</v>
+      </c>
+      <c r="D361" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>652</v>
       </c>
       <c r="B362" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C362" t="s">
+        <v>753</v>
+      </c>
+      <c r="D362" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>654</v>
       </c>
       <c r="B363" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C363" t="s">
+        <v>753</v>
+      </c>
+      <c r="D363" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>656</v>
       </c>
       <c r="B364" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C364" t="s">
+        <v>753</v>
+      </c>
+      <c r="D364" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>658</v>
       </c>
       <c r="B365" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C365" t="s">
+        <v>753</v>
+      </c>
+      <c r="D365" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>660</v>
       </c>
       <c r="B366" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C366" t="s">
+        <v>753</v>
+      </c>
+      <c r="D366" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>661</v>
       </c>
       <c r="B367" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C367" t="s">
+        <v>753</v>
+      </c>
+      <c r="D367" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
         <v>662</v>
       </c>
       <c r="B368" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C368" t="s">
+        <v>753</v>
+      </c>
+      <c r="D368" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>664</v>
       </c>
       <c r="B369" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C369" t="s">
+        <v>753</v>
+      </c>
+      <c r="D369" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>666</v>
       </c>
       <c r="B370" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C370" t="s">
+        <v>753</v>
+      </c>
+      <c r="D370" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>667</v>
       </c>
       <c r="B371" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C371" t="s">
+        <v>753</v>
+      </c>
+      <c r="D371" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>669</v>
       </c>
       <c r="B372" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C372" t="s">
+        <v>753</v>
+      </c>
+      <c r="D372" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>670</v>
       </c>
       <c r="B373" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C373" t="s">
+        <v>753</v>
+      </c>
+      <c r="D373" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>672</v>
       </c>
       <c r="B374" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C374" t="s">
+        <v>753</v>
+      </c>
+      <c r="D374" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
         <v>673</v>
       </c>
       <c r="B375" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C375" t="s">
+        <v>753</v>
+      </c>
+      <c r="D375" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>675</v>
       </c>
       <c r="B376" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C376" t="s">
+        <v>753</v>
+      </c>
+      <c r="D376" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>676</v>
       </c>
       <c r="B377" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C377" t="s">
+        <v>753</v>
+      </c>
+      <c r="D377" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>678</v>
       </c>
       <c r="B378" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C378" t="s">
+        <v>753</v>
+      </c>
+      <c r="D378" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>679</v>
       </c>
       <c r="B379" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C379" t="s">
+        <v>753</v>
+      </c>
+      <c r="D379" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>681</v>
       </c>
       <c r="B380" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C380" t="s">
+        <v>753</v>
+      </c>
+      <c r="D380" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
         <v>682</v>
       </c>
       <c r="B381" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C381" t="s">
+        <v>753</v>
+      </c>
+      <c r="D381" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>684</v>
       </c>
       <c r="B382" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C382" t="s">
+        <v>753</v>
+      </c>
+      <c r="D382" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>685</v>
       </c>
       <c r="B383" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C383" t="s">
+        <v>753</v>
+      </c>
+      <c r="D383" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>687</v>
       </c>
       <c r="B384" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C384" t="s">
+        <v>753</v>
+      </c>
+      <c r="D384" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
         <v>689</v>
       </c>
       <c r="B385" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C385" t="s">
+        <v>753</v>
+      </c>
+      <c r="D385" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>691</v>
       </c>
       <c r="B386" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C386" t="s">
+        <v>753</v>
+      </c>
+      <c r="D386" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>693</v>
       </c>
       <c r="B387" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C387" t="s">
+        <v>753</v>
+      </c>
+      <c r="D387" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>695</v>
       </c>
       <c r="B388" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C388" t="s">
+        <v>753</v>
+      </c>
+      <c r="D388" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
         <v>696</v>
       </c>
       <c r="B389" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C389" t="s">
+        <v>753</v>
+      </c>
+      <c r="D389" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>698</v>
       </c>
       <c r="B390" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C390" t="s">
+        <v>753</v>
+      </c>
+      <c r="D390" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>700</v>
       </c>
       <c r="B391" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C391" t="s">
+        <v>753</v>
+      </c>
+      <c r="D391" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>702</v>
       </c>
       <c r="B392" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C392" t="s">
+        <v>753</v>
+      </c>
+      <c r="D392" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>704</v>
       </c>
       <c r="B393" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C393" t="s">
+        <v>753</v>
+      </c>
+      <c r="D393" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
         <v>705</v>
       </c>
       <c r="B394" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C394" t="s">
+        <v>753</v>
+      </c>
+      <c r="D394" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>707</v>
       </c>
       <c r="B395" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C395" t="s">
+        <v>753</v>
+      </c>
+      <c r="D395" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>708</v>
       </c>
       <c r="B396" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C396" t="s">
+        <v>753</v>
+      </c>
+      <c r="D396" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>709</v>
       </c>
       <c r="B397" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C397" t="s">
+        <v>753</v>
+      </c>
+      <c r="D397" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>711</v>
       </c>
       <c r="B398" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C398" t="s">
+        <v>753</v>
+      </c>
+      <c r="D398" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
         <v>712</v>
       </c>
       <c r="B399" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C399" t="s">
+        <v>753</v>
+      </c>
+      <c r="D399" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>713</v>
       </c>
       <c r="B400" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C400" t="s">
+        <v>753</v>
+      </c>
+      <c r="D400" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>714</v>
       </c>
       <c r="B401" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C401" t="s">
+        <v>753</v>
+      </c>
+      <c r="D401" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>715</v>
       </c>
       <c r="B402" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C402" t="s">
+        <v>753</v>
+      </c>
+      <c r="D402" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
         <v>716</v>
       </c>
       <c r="B403" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C403" t="s">
+        <v>753</v>
+      </c>
+      <c r="D403" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>717</v>
       </c>
       <c r="B404" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C404" t="s">
+        <v>753</v>
+      </c>
+      <c r="D404" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>718</v>
       </c>
       <c r="B405" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C405" t="s">
+        <v>753</v>
+      </c>
+      <c r="D405" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>719</v>
       </c>
       <c r="B406" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C406" t="s">
+        <v>753</v>
+      </c>
+      <c r="D406" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>720</v>
       </c>
       <c r="B407" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C407" t="s">
+        <v>753</v>
+      </c>
+      <c r="D407" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>721</v>
       </c>
       <c r="B408" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C408" t="s">
+        <v>753</v>
+      </c>
+      <c r="D408" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>722</v>
       </c>
       <c r="B409" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C409" t="s">
+        <v>753</v>
+      </c>
+      <c r="D409" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>723</v>
       </c>
       <c r="B410" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C410" t="s">
+        <v>753</v>
+      </c>
+      <c r="D410" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>724</v>
       </c>
       <c r="B411" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C411" t="s">
+        <v>753</v>
+      </c>
+      <c r="D411" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>725</v>
       </c>
       <c r="B412" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C412" t="s">
+        <v>753</v>
+      </c>
+      <c r="D412" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>726</v>
       </c>
       <c r="B413" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C413" t="s">
+        <v>753</v>
+      </c>
+      <c r="D413" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>727</v>
       </c>
       <c r="B414" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C414" t="s">
+        <v>753</v>
+      </c>
+      <c r="D414" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" s="1" t="s">
         <v>728</v>
       </c>
       <c r="B415" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C415" t="s">
+        <v>753</v>
+      </c>
+      <c r="D415" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>729</v>
       </c>
       <c r="B416" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C416" t="s">
+        <v>753</v>
+      </c>
+      <c r="D416" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>730</v>
       </c>
       <c r="B417" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C417" t="s">
+        <v>753</v>
+      </c>
+      <c r="D417" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>731</v>
       </c>
       <c r="B418" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C418" t="s">
+        <v>753</v>
+      </c>
+      <c r="D418" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>732</v>
       </c>
       <c r="B419" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C419" t="s">
+        <v>753</v>
+      </c>
+      <c r="D419" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
         <v>733</v>
       </c>
       <c r="B420" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C420" t="s">
+        <v>753</v>
+      </c>
+      <c r="D420" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>734</v>
       </c>
       <c r="B421" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C421" t="s">
+        <v>753</v>
+      </c>
+      <c r="D421" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>735</v>
       </c>
       <c r="B422" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C422" t="s">
+        <v>753</v>
+      </c>
+      <c r="D422" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>736</v>
       </c>
       <c r="B423" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C423" t="s">
+        <v>753</v>
+      </c>
+      <c r="D423" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>737</v>
       </c>
       <c r="B424" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C424" t="s">
+        <v>753</v>
+      </c>
+      <c r="D424" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>738</v>
       </c>
       <c r="B425" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C425" t="s">
+        <v>753</v>
+      </c>
+      <c r="D425" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
         <v>739</v>
       </c>
       <c r="B426" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C426" t="s">
+        <v>753</v>
+      </c>
+      <c r="D426" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>740</v>
       </c>
       <c r="B427" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C427" t="s">
+        <v>753</v>
+      </c>
+      <c r="D427" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>741</v>
       </c>
       <c r="B428" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C428" t="s">
+        <v>753</v>
+      </c>
+      <c r="D428" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>742</v>
       </c>
       <c r="B429" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C429" t="s">
+        <v>753</v>
+      </c>
+      <c r="D429" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>743</v>
       </c>
       <c r="B430" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C430" t="s">
+        <v>753</v>
+      </c>
+      <c r="D430" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>744</v>
       </c>
       <c r="B431" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C431" t="s">
+        <v>753</v>
+      </c>
+      <c r="D431" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>745</v>
       </c>
       <c r="B432" t="s">
         <v>746</v>
+      </c>
+      <c r="C432" t="s">
+        <v>753</v>
+      </c>
+      <c r="D432" s="4">
+        <v>45869</v>
       </c>
     </row>
   </sheetData>
@@ -6086,80 +8690,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67AE1FB-095B-4F00-930C-0E7C43E16306}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>749</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>13167</v>
       </c>
       <c r="B2" s="2">
         <v>6225000366466</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D2" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>19252</v>
       </c>
       <c r="B3" s="2">
         <v>6225000366473</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>13168</v>
       </c>
       <c r="B4" s="2">
         <v>6225000366480</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>753</v>
+      </c>
+      <c r="D4" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8801</v>
       </c>
       <c r="B5" s="2">
         <v>6225000366435</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>753</v>
+      </c>
+      <c r="D5" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>20879</v>
       </c>
       <c r="B6" s="2">
         <v>6225000366442</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>753</v>
+      </c>
+      <c r="D6" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>32059</v>
       </c>
       <c r="B7" s="2">
         <v>6225000366459</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>753</v>
+      </c>
+      <c r="D7" s="4">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6414</v>
       </c>
       <c r="B8" s="2">
         <v>6224011259019</v>
+      </c>
+      <c r="C8" t="s">
+        <v>753</v>
+      </c>
+      <c r="D8" s="4">
+        <v>45869</v>
       </c>
     </row>
   </sheetData>
